--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,13 +384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -487,6 +487,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42600.829085648147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>6826</v>
+      </c>
+      <c r="D3">
+        <v>4017</v>
+      </c>
+      <c r="E3">
+        <v>622</v>
+      </c>
+      <c r="F3">
+        <v>103</v>
+      </c>
+      <c r="G3">
+        <v>54</v>
+      </c>
+      <c r="H3">
+        <v>64</v>
+      </c>
+      <c r="I3">
+        <v>34</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42600.881840277776</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>8284</v>
+      </c>
+      <c r="D4">
+        <v>4017</v>
+      </c>
+      <c r="E4">
+        <v>622</v>
+      </c>
+      <c r="F4">
+        <v>103</v>
+      </c>
+      <c r="G4">
+        <v>54</v>
+      </c>
+      <c r="H4">
+        <v>64</v>
+      </c>
+      <c r="I4">
+        <v>34</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,6 +569,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42602.016469907408</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>6143</v>
+      </c>
+      <c r="D5">
+        <v>3579</v>
+      </c>
+      <c r="E5">
+        <v>602</v>
+      </c>
+      <c r="F5">
+        <v>104</v>
+      </c>
+      <c r="G5">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>73</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,6 +610,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42602.584131944444</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>8516</v>
+      </c>
+      <c r="D6">
+        <v>3947</v>
+      </c>
+      <c r="E6">
+        <v>656</v>
+      </c>
+      <c r="F6">
+        <v>95</v>
+      </c>
+      <c r="G6">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>71</v>
+      </c>
+      <c r="I6">
+        <v>28</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>99</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,6 +651,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42604.891469907408</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2011</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,6 +496,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42606.882893518516</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>61</v>
+      </c>
+      <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>4845</v>
+      </c>
+      <c r="H3">
+        <v>2595</v>
+      </c>
+      <c r="I3">
+        <v>432</v>
+      </c>
+      <c r="J3">
+        <v>73</v>
+      </c>
+      <c r="K3">
+        <v>45</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,6 +540,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42607.891712962963</v>
+      </c>
+      <c r="B4">
+        <v>-32</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>54</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>94</v>
+      </c>
+      <c r="G4">
+        <v>19078</v>
+      </c>
+      <c r="H4">
+        <v>14573</v>
+      </c>
+      <c r="I4">
+        <v>2277</v>
+      </c>
+      <c r="J4">
+        <v>226</v>
+      </c>
+      <c r="K4">
+        <v>287</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
@@ -542,43 +542,43 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>42607.891712962963</v>
+        <v>42608.901689814818</v>
       </c>
       <c r="B4">
-        <v>-32</v>
+        <v>-22</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>70</v>
+      </c>
+      <c r="G4">
+        <v>18795</v>
+      </c>
+      <c r="H4">
+        <v>20605</v>
+      </c>
+      <c r="I4">
+        <v>2957</v>
+      </c>
+      <c r="J4">
+        <v>369</v>
+      </c>
+      <c r="K4">
+        <v>485</v>
+      </c>
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="F4">
-        <v>94</v>
-      </c>
-      <c r="G4">
-        <v>19078</v>
-      </c>
-      <c r="H4">
-        <v>14573</v>
-      </c>
-      <c r="I4">
-        <v>2277</v>
-      </c>
-      <c r="J4">
-        <v>226</v>
-      </c>
-      <c r="K4">
-        <v>287</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N4" t="s">
         <v>14</v>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,6 +584,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42611.887627314813</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>8269</v>
+      </c>
+      <c r="H5">
+        <v>7214</v>
+      </c>
+      <c r="I5">
+        <v>1214</v>
+      </c>
+      <c r="J5">
+        <v>143</v>
+      </c>
+      <c r="K5">
+        <v>109</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,6 +628,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42612.895370370374</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <v>16398</v>
+      </c>
+      <c r="H6">
+        <v>11622</v>
+      </c>
+      <c r="I6">
+        <v>1786</v>
+      </c>
+      <c r="J6">
+        <v>267</v>
+      </c>
+      <c r="K6">
+        <v>220</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,6 +672,182 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42613.761874999997</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>53</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>22576</v>
+      </c>
+      <c r="H7">
+        <v>11398</v>
+      </c>
+      <c r="I7">
+        <v>1672</v>
+      </c>
+      <c r="J7">
+        <v>296</v>
+      </c>
+      <c r="K7">
+        <v>238</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42613.891886574071</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>54</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>11882</v>
+      </c>
+      <c r="H8">
+        <v>10246</v>
+      </c>
+      <c r="I8">
+        <v>1525</v>
+      </c>
+      <c r="J8">
+        <v>271</v>
+      </c>
+      <c r="K8">
+        <v>208</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42614.889236111114</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>59</v>
+      </c>
+      <c r="D9">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>26039</v>
+      </c>
+      <c r="H9">
+        <v>17393</v>
+      </c>
+      <c r="I9">
+        <v>2272</v>
+      </c>
+      <c r="J9">
+        <v>396</v>
+      </c>
+      <c r="K9">
+        <v>258</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42615.887800925928</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>20562</v>
+      </c>
+      <c r="H10">
+        <v>12723</v>
+      </c>
+      <c r="I10">
+        <v>2003</v>
+      </c>
+      <c r="J10">
+        <v>328</v>
+      </c>
+      <c r="K10">
+        <v>234</v>
+      </c>
+      <c r="L10">
+        <v>12</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -848,6 +848,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42619.894375000003</v>
+      </c>
+      <c r="B11">
+        <v>-2</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>54</v>
+      </c>
+      <c r="F11">
+        <v>76</v>
+      </c>
+      <c r="G11">
+        <v>10593</v>
+      </c>
+      <c r="H11">
+        <v>9717</v>
+      </c>
+      <c r="I11">
+        <v>1369</v>
+      </c>
+      <c r="J11">
+        <v>259</v>
+      </c>
+      <c r="K11">
+        <v>198</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,6 +892,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42620.891168981485</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>31869</v>
+      </c>
+      <c r="H12">
+        <v>19383</v>
+      </c>
+      <c r="I12">
+        <v>3143</v>
+      </c>
+      <c r="J12">
+        <v>461</v>
+      </c>
+      <c r="K12">
+        <v>310</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -936,6 +936,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42621.894317129627</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>19041</v>
+      </c>
+      <c r="H13">
+        <v>13058</v>
+      </c>
+      <c r="I13">
+        <v>1957</v>
+      </c>
+      <c r="J13">
+        <v>296</v>
+      </c>
+      <c r="K13">
+        <v>146</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -980,6 +980,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42622.891446759262</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>58</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>19787</v>
+      </c>
+      <c r="H14">
+        <v>10163</v>
+      </c>
+      <c r="I14">
+        <v>1498</v>
+      </c>
+      <c r="J14">
+        <v>264</v>
+      </c>
+      <c r="K14">
+        <v>189</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,6 +1024,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42625.886643518519</v>
+      </c>
+      <c r="B15">
+        <v>-12</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <v>33</v>
+      </c>
+      <c r="F15">
+        <v>66</v>
+      </c>
+      <c r="G15">
+        <v>13364</v>
+      </c>
+      <c r="H15">
+        <v>9708</v>
+      </c>
+      <c r="I15">
+        <v>1189</v>
+      </c>
+      <c r="J15">
+        <v>191</v>
+      </c>
+      <c r="K15">
+        <v>143</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
